--- a/Excel/updateUQ.xlsx
+++ b/Excel/updateUQ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="1101 Unqualified" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
   <si>
     <t>id</t>
   </si>
@@ -375,8 +375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -395,7 +395,9 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -423,7 +425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
